--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Service Location</t>
+    <t>RS Service Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,7 +262,7 @@
     <t>Service / facility location</t>
   </si>
   <si>
-    <t>Location representing a service or facility used in road safety encounters (for example, ER, ward, clinic).</t>
+    <t>Location representing a service or facility used in RS encounters (for example, ER, ward, clinic).</t>
   </si>
   <si>
     <t>Used for recording facility or service locations related to encounters.</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Service Location</t>
+    <t>Road Safety Service Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,7 +262,7 @@
     <t>Service / facility location</t>
   </si>
   <si>
-    <t>Location representing a service or facility used in RS encounters (for example, ER, ward, clinic).</t>
+    <t>Location representing a service or facility used in road safety encounters (for example, ER, ward, clinic).</t>
   </si>
   <si>
     <t>Used for recording facility or service locations related to encounters.</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Service Location</t>
+    <t>RS Service Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,7 +262,7 @@
     <t>Service / facility location</t>
   </si>
   <si>
-    <t>Location representing a service or facility used in road safety encounters (for example, ER, ward, clinic).</t>
+    <t>Location representing a service or facility used in RS encounters (for example, ER, ward, clinic).</t>
   </si>
   <si>
     <t>Used for recording facility or service locations related to encounters.</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -615,6 +615,15 @@
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/service-type"/&gt;
+    &lt;code value="335"/&gt;
+    &lt;display value="Facility"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>extensible</t>
@@ -3183,7 +3192,7 @@
         <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>76</v>
@@ -3198,11 +3207,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3235,7 +3246,7 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>188</v>
@@ -3243,10 +3254,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3269,13 +3280,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3326,7 +3337,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3341,7 +3352,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3349,10 +3360,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3375,19 +3386,19 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3436,7 +3447,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3462,7 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3459,10 +3470,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3488,14 +3499,14 @@
         <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3520,13 +3531,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3544,7 +3555,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3559,7 +3570,7 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>188</v>
@@ -3567,10 +3578,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3593,17 +3604,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3652,7 +3663,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3667,7 +3678,7 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3675,10 +3686,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3704,10 +3715,10 @@
         <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3758,7 +3769,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3781,10 +3792,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3813,7 +3824,7 @@
         <v>133</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>135</v>
@@ -3866,7 +3877,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3889,14 +3900,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3918,10 +3929,10 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>135</v>
@@ -3976,7 +3987,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3999,10 +4010,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4025,13 +4036,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4082,7 +4093,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4097,7 +4108,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4105,10 +4116,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4131,13 +4142,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4188,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4203,7 +4214,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4211,10 +4222,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4237,13 +4248,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4294,7 +4305,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4309,7 +4320,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4317,10 +4328,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4343,19 +4354,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4404,7 +4415,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4419,7 +4430,7 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4427,10 +4438,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4453,17 +4464,17 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4523,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4527,7 +4538,7 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4535,10 +4546,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4561,16 +4572,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4620,7 +4631,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4635,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4643,10 +4654,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4672,10 +4683,10 @@
         <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4726,7 +4737,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4749,10 +4760,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4781,7 +4792,7 @@
         <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>135</v>
@@ -4834,7 +4845,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4857,14 +4868,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4886,10 +4897,10 @@
         <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>135</v>
@@ -4944,7 +4955,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -4967,10 +4978,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4996,10 +5007,10 @@
         <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5029,10 +5040,10 @@
         <v>153</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5050,7 +5061,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5065,7 +5076,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5073,10 +5084,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5099,13 +5110,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5156,7 +5167,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5171,7 +5182,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5179,10 +5190,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5205,13 +5216,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5262,7 +5273,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5277,7 +5288,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5285,10 +5296,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5311,13 +5322,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5368,7 +5379,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5383,7 +5394,7 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5391,10 +5402,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5420,10 +5431,10 @@
         <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5474,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5497,10 +5508,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5523,17 +5534,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5582,7 +5593,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-service.xlsx
+++ b/StructureDefinition-rs-location-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
